--- a/biology/Botanique/Kaempferia/Kaempferia.xlsx
+++ b/biology/Botanique/Kaempferia/Kaempferia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaempferia est un genre de plantes monocotylédones de la famille des Zingiberaceae, de la sous-famille des Zingiberoideae, originaire de l'Asie du Sud, qui comprend une cinquantaine d'espèces acceptées. Ce sont des plantes herbacées, vivace par leur rhizomes. L'espèce la plus connue est le galanga camphré ou faux galanga (Kaempferia galanga), qui est souvent utilisé comme épice en Asie du Sud-Est.
 </t>
@@ -511,16 +523,87 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre fut mentionné pour la première fois en 1753 par Carl von Linné dans son ouvrage Species plantarum (page 3)[2], qui dédia son nom à Engelbert Kaempfer (Kaempf.) (1651-1716), médecin allemand et grand voyageur en Extrême-Orient.
-Synonymes
-Selon BioLib                    (12 février 2022)[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre fut mentionné pour la première fois en 1753 par Carl von Linné dans son ouvrage Species plantarum (page 3), qui dédia son nom à Engelbert Kaempfer (Kaempf.) (1651-1716), médecin allemand et grand voyageur en Extrême-Orient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kaempferia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kaempferia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 février 2022) : 
 Monolophus Wall.
 Tritophus T. Lestib.
-Zerumbet Garsault
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011)[4] :
+Zerumbet Garsault</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kaempferia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kaempferia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011) :
 Kaempferia albiflora Jenjitt. &amp; Ruchis.  (2020)
 Kaempferia alboviolacea Ridl.  (1921)
 Kaempferia angustifolia Roscoe, (1807)
@@ -572,8 +655,43 @@
 Kaempferia udonensis Picheans. &amp; Phokham  (2013)
 Kaempferia undulata Teijsm. &amp; Binn.  (1853)
 Kaempferia xiengkhouangensis Picheans. &amp; Phokham  (2013)
-Espèces aux noms synonymes, obsolètes et leurs taxons de référence
-Selon World Checklist of Selected Plant Families (WCSP)  (12 sept 2011)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kaempferia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kaempferia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 sept 2011) :
 </t>
         </is>
       </c>
